--- a/corgi-fraud/advanced_fraud_claims_with_agents.xlsx
+++ b/corgi-fraud/advanced_fraud_claims_with_agents.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Claims" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="Metadata" sheetId="2" state="hidden" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Claims" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Metadata" sheetId="2" state="hidden" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -30,7 +30,7 @@
       <b val="1"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill/>
     </fill>
@@ -41,12 +41,6 @@
       <patternFill patternType="solid">
         <fgColor rgb="00C6EFCE"/>
         <bgColor rgb="00C6EFCE"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00FFC7CE"/>
-        <bgColor rgb="00FFC7CE"/>
       </patternFill>
     </fill>
   </fills>
@@ -68,7 +62,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
@@ -77,7 +71,6 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -548,40 +541,40 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>CLM-0A99B38B</t>
+          <t>CLM-0684E88D</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Heather Meyers</t>
+          <t>Tina Alvarez</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>POL-5354-87</t>
+          <t>POL-4074-79</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>2024-10-11</t>
+          <t>2024-06-28</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>2025-05-21</t>
+          <t>2025-05-28</t>
         </is>
       </c>
       <c r="F2" s="2" t="inlineStr">
         <is>
-          <t>On March 09, 2025, I experienced disability while driving to work. The incident occurred at precisely 07:15 AM when Reason political organization might.. I immediately sought medical attention and High himself best.. Independent verification includes security footage from Miller Group. All documentation is complete and consistent, including dated photographs. Additional details: Thought west base include group western. Evidence point believe assume. Power executive feel agree cause. Her difference occur cell stuff door. Heavy instead set door collection stand second training. Stock pressure size animal. Want owner money anyone. Enter can surface general as. Agreement you consumer fill why. Determine describe rock people able great.</t>
+          <t>On September 13, 2024, I experienced flood while driving to work. The incident occurred at precisely 02:19 PM when Fear very miss field.. I immediately contacted my insurance agent and How black guess able guy fish.. Independent verification includes police report #4543523. All documentation is complete and consistent, including itemized receipts. Additional details: War item write so school production. Close yes through daughter hear recently rest. Wrong nearly mind different toward drop. Pm ten discover get property. Often hope exist wind hard memory military. Mean population after if another. Good would available fund only. Ground travel especially specific per manage charge involve.</t>
         </is>
       </c>
       <c r="G2" t="n">
-        <v>11067</v>
+        <v>11030</v>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Travel</t>
+          <t>Property</t>
         </is>
       </c>
       <c r="I2" s="3" t="b">
@@ -594,214 +587,123 @@
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>Under Review</t>
+          <t>Pending</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>product_statement_18.pdf, factor_statement_78.pdf, answer_statement_42.pdf, bar_report_79.pdf</t>
+          <t>claim_photos_25.pdf, nor_statement_20.pdf</t>
         </is>
       </c>
       <c r="M2" s="2" t="inlineStr">
         <is>
           <t>{
-  "claimant_age": 76,
-  "policy_age_days": 1367,
-  "previous_claims": 4,
-  "credit_score": 638,
+  "claimant_age": 35,
+  "policy_age_days": 801,
+  "previous_claims": 0,
+  "credit_score": 471,
   "digital_footprint": {
     "device_types": [
+      "tablet",
       "desktop"
     ],
     "os_versions": [
-      "Mozilla/5.0 (iPod; U; CPU iPhone OS 3_2 like Mac OS X; kk-KZ) AppleWebKit/531.34.7 (KHTML, like Gecko) Version/3.0.5 Mobile/8B114 Safari/6531.34.7"
+      "Opera/8.65.(X11; Linux x86_64; os-RU) Presto/2.9.182 Version/10.00",
+      "Mozilla/5.0 (compatible; MSIE 9.0; Windows NT 5.0; Trident/4.1)"
     ]
   }
 }</t>
         </is>
       </c>
       <c r="N2" t="n">
-        <v>222</v>
+        <v>334</v>
       </c>
       <c r="O2" t="n">
-        <v>49.85135135135135</v>
+        <v>33.02395209580838</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>CLM-3D0937F2</t>
+          <t>CLM-8DBECB22</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Melinda Ellison</t>
+          <t>Michael Morris</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>POL-1945-73</t>
+          <t>POL-6834-85</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>2025-01-17</t>
+          <t>2025-03-20</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>2025-06-17</t>
+          <t>2025-06-08</t>
         </is>
       </c>
       <c r="F3" s="2" t="inlineStr">
         <is>
-          <t>On November 14, 2024, I experienced burglary while at home. The incident occurred when Finish professor seek assume kid. Lost keys has complicated matters because Born such present former from consumer west.. Regarding the witness, The witness provided conflicting statements upon re-interview. Regarding the document, The receipts appear altered when examined closely. Regarding the location, The GPS data shows I was elsewhere during the claimed time. I immediately took photos, though there was some delay. Supporting documents include photographs, but a few are missing dates. Additional context: Little support star be because. Final environmental quality save agent along treat. Will animal simply red. Hacked wallet further complicates this because Dinner everybody organization from also put.</t>
+          <t>On December 19, 2024, I experienced flood while traveling abroad. The incident occurred at precisely 02:21 AM when The performance also attention born.. I immediately contacted my insurance agent and As their exactly hundred against movie month.. Independent verification includes witness statements from Samuel Bowman. All documentation is complete and consistent, including dated photographs. Additional details: Medical tell lot include though your responsibility. Over what paper politics join site shoulder. Finish wall little matter affect appear democratic. Fire tax class matter nice lawyer hospital. Detail believe ask hold. Kind discover head reason technology. Or age guy. Evidence partner among among.</t>
         </is>
       </c>
       <c r="G3" t="n">
-        <v>17186</v>
+        <v>5033</v>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>Cyber</t>
-        </is>
-      </c>
-      <c r="I3" s="4" t="b">
-        <v>1</v>
+          <t>Travel</t>
+        </is>
+      </c>
+      <c r="I3" s="3" t="b">
+        <v>0</v>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>Fake crypto theft</t>
+          <t>Legitimate</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>Pending</t>
+          <t>Under Review</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>natural_report_45.pdf, send_report_25.pdf, surface_statement_88.pdf</t>
+          <t>section_report_78.pdf, operation_statement_24.pdf</t>
         </is>
       </c>
       <c r="M3" s="2" t="inlineStr">
         <is>
           <t>{
-  "claimant_age": 50,
-  "policy_age_days": 260,
-  "previous_claims": 3,
-  "credit_score": 536,
+  "claimant_age": 76,
+  "policy_age_days": 1807,
+  "previous_claims": 0,
+  "credit_score": 487,
   "digital_footprint": {
     "device_types": [
-      "mobile",
-      "tablet"
+      "desktop",
+      "tablet",
+      "mobile"
     ],
     "os_versions": [
-      "Opera/9.46.(Windows 98; Win 9x 4.90; iw-IL) Presto/2.9.175 Version/11.00"
-    ]
-  },
-  "social_media": {
-    "platforms": [
-      "linkedin",
-      "instagram"
-    ],
-    "flags": [
-      "security_negligence",
-      "password_sharing"
-    ],
-    "last_active": "2025-05-02",
-    "post_frequency": 4,
-    "sentiment_analysis": {
-      "positive": 0.05412705525695879,
-      "negative": 0.43660518217865607
-    }
-  },
-  "network_analysis": {
-    "connections": 31,
-    "fraud_connections": 2,
-    "flags": [
-      "suspicious_transfers"
-    ],
-    "ip_addresses": [
-      "88.117.225.3",
-      "154.202.53.109",
-      "46.243.68.75"
-    ],
-    "behavioral_biometrics": {
-      "typing_speed": 21.961418619802075,
-      "mouse_movement": 0.4166238350863687
-    }
-  },
-  "blockchain": {
-    "wallets": [
-      "0x9a52db20137288ff551ccded263fa3de9607f831",
-      "0x48bc8851b4158795266f5cdcc4f3086e0b87f50a",
-      "0x14c301e6a329f7f7325a28affe8b80ce0f7af31d"
-    ],
-    "transactions": 34,
-    "flags": [
-      "funds_moved",
-      "wallet_active"
-    ],
-    "token_movements": [
-      {
-        "from": "0x95ec1f59641162069a969ca464cc08905ba34cb6",
-        "to": "0xd4916442c0a1c636871bc5a6a6774500c09f07c2",
-        "amount": 9.278392208154584,
-        "token": "USDT"
-      },
-      {
-        "from": "0x60c60e9974186d184ca9d1eaa46404c117149842",
-        "to": "0xd9ac5c91c706dd1f3729100371ce853a20463349",
-        "amount": 25.232893113903675,
-        "token": "USDT"
-      },
-      {
-        "from": "0x24ddcce7f68bcb855ed53b2bfaa4bd79439c9e73",
-        "to": "0x53c0c4d84b4c3ae30f99749475b76200b8aaa9aa",
-        "amount": 2.7747257160178562,
-        "token": "ETH"
-      },
-      {
-        "from": "0x9312d3178b970a2893b62a7f2fc4893e465e77b0",
-        "to": "0x6d05aef5375e6e1aa13dc8540676cce0a1da792b",
-        "amount": 46.28164150722829,
-        "token": "USDT"
-      }
-    ]
-  },
-  "location_data": {
-    "claimed_location": {
-      "address": "52349 Allen Haven Suite 115\nDaviston, HI 60975",
-      "coordinates": [
-        -62.1336285,
-        -155.324049
-      ]
-    },
-    "ip_locations": [
-      {
-        "ip": "115.119.255.144",
-        "country": "Kazakhstan",
-        "vpn": true
-      },
-      {
-        "ip": "198.31.110.184",
-        "country": "Holy See (Vatican City State)",
-        "vpn": false
-      }
-    ],
-    "flags": [
-      "ip_location_mismatch"
+      "Opera/8.17.(X11; Linux x86_64; mk-MK) Presto/2.9.162 Version/10.00"
     ]
   }
 }</t>
         </is>
       </c>
       <c r="N3" t="n">
-        <v>151</v>
+        <v>80</v>
       </c>
       <c r="O3" t="n">
-        <v>113.8145695364238</v>
+        <v>62.9125</v>
       </c>
     </row>
   </sheetData>
@@ -815,7 +717,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J3"/>
+  <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -854,96 +756,52 @@
           <t>digital_footprint</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>social_media</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>network_analysis</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>blockchain</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>location_data</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>CLM-0A99B38B</t>
+          <t>CLM-0684E88D</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>76</v>
+        <v>35</v>
       </c>
       <c r="C2" t="n">
-        <v>1367</v>
+        <v>801</v>
       </c>
       <c r="D2" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>638</v>
+        <v>471</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>{'device_types': ['desktop'], 'os_versions': ['Mozilla/5.0 (iPod; U; CPU iPhone OS 3_2 like Mac OS X; kk-KZ) AppleWebKit/531.34.7 (KHTML, like Gecko) Version/3.0.5 Mobile/8B114 Safari/6531.34.7']}</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr"/>
-      <c r="H2" t="inlineStr"/>
-      <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr"/>
+          <t>{'device_types': ['tablet', 'desktop'], 'os_versions': ['Opera/8.65.(X11; Linux x86_64; os-RU) Presto/2.9.182 Version/10.00', 'Mozilla/5.0 (compatible; MSIE 9.0; Windows NT 5.0; Trident/4.1)']}</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>CLM-3D0937F2</t>
+          <t>CLM-8DBECB22</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>50</v>
+        <v>76</v>
       </c>
       <c r="C3" t="n">
-        <v>260</v>
+        <v>1807</v>
       </c>
       <c r="D3" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>536</v>
+        <v>487</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>{'device_types': ['mobile', 'tablet'], 'os_versions': ['Opera/9.46.(Windows 98; Win 9x 4.90; iw-IL) Presto/2.9.175 Version/11.00']}</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>{'platforms': ['linkedin', 'instagram'], 'flags': ['security_negligence', 'password_sharing'], 'last_active': '2025-05-02', 'post_frequency': 4, 'sentiment_analysis': {'positive': 0.05412705525695879, 'negative': 0.43660518217865607}}</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>{'connections': 31, 'fraud_connections': 2, 'flags': ['suspicious_transfers'], 'ip_addresses': ['88.117.225.3', '154.202.53.109', '46.243.68.75'], 'behavioral_biometrics': {'typing_speed': 21.961418619802075, 'mouse_movement': 0.4166238350863687}}</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>{'wallets': ['0x9a52db20137288ff551ccded263fa3de9607f831', '0x48bc8851b4158795266f5cdcc4f3086e0b87f50a', '0x14c301e6a329f7f7325a28affe8b80ce0f7af31d'], 'transactions': 34, 'flags': ['funds_moved', 'wallet_active'], 'token_movements': [{'from': '0x95ec1f59641162069a969ca464cc08905ba34cb6', 'to': '0xd4916442c0a1c636871bc5a6a6774500c09f07c2', 'amount': 9.278392208154584, 'token': 'USDT'}, {'from': '0x60c60e9974186d184ca9d1eaa46404c117149842', 'to': '0xd9ac5c91c706dd1f3729100371ce853a20463349', 'amount': 25.232893113903675, 'token': 'USDT'}, {'from': '0x24ddcce7f68bcb855ed53b2bfaa4bd79439c9e73', 'to': '0x53c0c4d84b4c3ae30f99749475b76200b8aaa9aa', 'amount': 2.7747257160178562, 'token': 'ETH'}, {'from': '0x9312d3178b970a2893b62a7f2fc4893e465e77b0', 'to': '0x6d05aef5375e6e1aa13dc8540676cce0a1da792b', 'amount': 46.28164150722829, 'token': 'USDT'}]}</t>
-        </is>
-      </c>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>{'claimed_location': {'address': '52349 Allen Haven Suite 115\nDaviston, HI 60975', 'coordinates': [-62.1336285, -155.324049]}, 'ip_locations': [{'ip': '115.119.255.144', 'country': 'Kazakhstan', 'vpn': True}, {'ip': '198.31.110.184', 'country': 'Holy See (Vatican City State)', 'vpn': False}], 'flags': ['ip_location_mismatch']}</t>
+          <t>{'device_types': ['desktop', 'tablet', 'mobile'], 'os_versions': ['Opera/8.17.(X11; Linux x86_64; mk-MK) Presto/2.9.162 Version/10.00']}</t>
         </is>
       </c>
     </row>

--- a/corgi-fraud/advanced_fraud_claims_with_agents.xlsx
+++ b/corgi-fraud/advanced_fraud_claims_with_agents.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Claims" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Metadata" sheetId="2" state="hidden" r:id="rId2"/>
+    <sheet name="Claims" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Metadata" sheetId="2" state="hidden" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -30,12 +30,18 @@
       <b val="1"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FFC7CE"/>
+        <bgColor rgb="00FFC7CE"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -62,7 +68,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
@@ -71,6 +77,7 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -436,7 +443,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O3"/>
+  <dimension ref="A1:P3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -529,10 +536,15 @@
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
+          <t>RelatedClaims</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
           <t>DaysToReport</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>AmountPerDay</t>
         </is>
@@ -541,169 +553,206 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>CLM-0684E88D</t>
+          <t>CLM-EC1AD267</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Tina Alvarez</t>
+          <t>Laura Harris</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>POL-4074-79</t>
+          <t>POL-4094-26</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>2024-06-28</t>
+          <t>2024-11-13</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>2025-05-28</t>
+          <t>2025-06-17</t>
         </is>
       </c>
       <c r="F2" s="2" t="inlineStr">
         <is>
-          <t>On September 13, 2024, I experienced flood while driving to work. The incident occurred at precisely 02:19 PM when Fear very miss field.. I immediately contacted my insurance agent and How black guess able guy fish.. Independent verification includes police report #4543523. All documentation is complete and consistent, including itemized receipts. Additional details: War item write so school production. Close yes through daughter hear recently rest. Wrong nearly mind different toward drop. Pm ten discover get property. Often hope exist wind hard memory military. Mean population after if another. Good would available fund only. Ground travel especially specific per manage charge involve.</t>
+          <t>On April 12, 2025, I experienced illness while traveling. The incident occurred when Language though happen baby road agency. Contradictory posts has complicated matters because Out bad customer by know probably.. Regarding the document, The receipts appear altered when examined closely. Regarding the timeline, I was actually out of town that week but the incident occurred. Regarding the medical, The treatment records don't match the claimed injuries. I immediately contacted authorities, though the response was slow. Supporting documents include medical records, but the originals were lost. Additional context: Cover later nature let race country. Might such push night. Use computer head several movement seat cut despite. Vacation photos further complicates this because Institution manage watch best detail safe in.</t>
         </is>
       </c>
       <c r="G2" t="n">
-        <v>11030</v>
+        <v>22687</v>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Property</t>
+          <t>Travel</t>
         </is>
       </c>
       <c r="I2" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>Social media inconsistency</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>Under Review</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>order_photos_48.pdf, out_report_51.pdf, away_report_77.pdf</t>
+        </is>
+      </c>
+      <c r="M2" s="2" t="inlineStr">
+        <is>
+          <t>{
+  "claimant_age": 72,
+  "policy_age_days": 154,
+  "previous_claims": 1,
+  "credit_score": 526,
+  "digital_footprint": {
+    "device_types": [
+      "tablet"
+    ],
+    "os_versions": [
+      "Mozilla/5.0 (iPhone; CPU iPhone OS 7_1_2 like Mac OS X) AppleWebKit/535.2 (KHTML, like Gecko) CriOS/39.0.885.0 Mobile/36Q727 Safari/535.2"
+    ]
+  },
+  "social_media": {
+    "platforms": [
+      "facebook",
+      "linkedin"
+    ],
+    "flags": [
+      "location_mismatch",
+      "activity_during_disability"
+    ],
+    "last_active": "2025-05-02",
+    "post_frequency": 20,
+    "sentiment_analysis": {
+      "positive": 0.21818979727332852,
+      "negative": 0.5708908549872629
+    }
+  },
+  "network_analysis": {
+    "connections": 10,
+    "fraud_connections": 2,
+    "flags": [
+      "suspicious_friends",
+      "new_connections"
+    ],
+    "ip_addresses": [
+      "153.238.196.221",
+      "76.27.193.212"
+    ],
+    "behavioral_biometrics": {
+      "typing_speed": 76.19828011207292,
+      "mouse_movement": 0.4875940981531951
+    }
+  }
+}</t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>CLM-EF944E55</t>
+        </is>
+      </c>
+      <c r="O2" t="n">
+        <v>216</v>
+      </c>
+      <c r="P2" t="n">
+        <v>105.0324074074074</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>CLM-19876C2F</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Melissa Meza</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>POL-2997-61</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>2024-11-05</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>2025-06-02</t>
+        </is>
+      </c>
+      <c r="F3" s="2" t="inlineStr">
+        <is>
+          <t>On March 22, 2025, I experienced lost luggage while driving to work. The incident occurred at precisely 05:49 AM when Note place step camera hospital plan image.. I immediately called 911 and Program why though free lead TV.. Independent verification includes medical records from Patterson-Pollard. All documentation is complete and consistent, including itemized receipts. Additional details: Outside growth mention girl so these. South travel guess grow thousand rock. Scientist image stage until yeah before. Finish rather public whose. Least method firm probably three. Down true might return decide air. Seem table car short free modern. Like person whom part test less.</t>
+        </is>
+      </c>
+      <c r="G3" t="n">
+        <v>3974</v>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Travel</t>
+        </is>
+      </c>
+      <c r="I3" s="4" t="b">
         <v>0</v>
       </c>
-      <c r="J2" t="inlineStr">
+      <c r="J3" t="inlineStr">
         <is>
           <t>Legitimate</t>
         </is>
       </c>
-      <c r="K2" t="inlineStr">
+      <c r="K3" t="inlineStr">
         <is>
           <t>Pending</t>
         </is>
       </c>
-      <c r="L2" t="inlineStr">
-        <is>
-          <t>claim_photos_25.pdf, nor_statement_20.pdf</t>
-        </is>
-      </c>
-      <c r="M2" s="2" t="inlineStr">
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>ready_photos_34.pdf, example_statement_66.pdf</t>
+        </is>
+      </c>
+      <c r="M3" s="2" t="inlineStr">
         <is>
           <t>{
-  "claimant_age": 35,
-  "policy_age_days": 801,
-  "previous_claims": 0,
-  "credit_score": 471,
+  "claimant_age": 50,
+  "policy_age_days": 271,
+  "previous_claims": 5,
+  "credit_score": 578,
   "digital_footprint": {
     "device_types": [
       "tablet",
-      "desktop"
+      "desktop",
+      "mobile"
     ],
     "os_versions": [
-      "Opera/8.65.(X11; Linux x86_64; os-RU) Presto/2.9.182 Version/10.00",
-      "Mozilla/5.0 (compatible; MSIE 9.0; Windows NT 5.0; Trident/4.1)"
+      "Mozilla/5.0 (Macintosh; U; PPC Mac OS X 10_12_2 rv:6.0; fa-IR) AppleWebKit/532.25.2 (KHTML, like Gecko) Version/5.0.3 Safari/532.25.2",
+      "Mozilla/5.0 (Macintosh; PPC Mac OS X 10_12_1; rv:1.9.6.20) Gecko/6559-05-25 09:44:07.983643 Firefox/9.0"
     ]
   }
 }</t>
         </is>
       </c>
-      <c r="N2" t="n">
-        <v>334</v>
-      </c>
-      <c r="O2" t="n">
-        <v>33.02395209580838</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>CLM-8DBECB22</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>Michael Morris</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>POL-6834-85</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>2025-03-20</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>2025-06-08</t>
-        </is>
-      </c>
-      <c r="F3" s="2" t="inlineStr">
-        <is>
-          <t>On December 19, 2024, I experienced flood while traveling abroad. The incident occurred at precisely 02:21 AM when The performance also attention born.. I immediately contacted my insurance agent and As their exactly hundred against movie month.. Independent verification includes witness statements from Samuel Bowman. All documentation is complete and consistent, including dated photographs. Additional details: Medical tell lot include though your responsibility. Over what paper politics join site shoulder. Finish wall little matter affect appear democratic. Fire tax class matter nice lawyer hospital. Detail believe ask hold. Kind discover head reason technology. Or age guy. Evidence partner among among.</t>
-        </is>
-      </c>
-      <c r="G3" t="n">
-        <v>5033</v>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>Travel</t>
-        </is>
-      </c>
-      <c r="I3" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>Legitimate</t>
-        </is>
-      </c>
-      <c r="K3" t="inlineStr">
-        <is>
-          <t>Under Review</t>
-        </is>
-      </c>
-      <c r="L3" t="inlineStr">
-        <is>
-          <t>section_report_78.pdf, operation_statement_24.pdf</t>
-        </is>
-      </c>
-      <c r="M3" s="2" t="inlineStr">
-        <is>
-          <t>{
-  "claimant_age": 76,
-  "policy_age_days": 1807,
-  "previous_claims": 0,
-  "credit_score": 487,
-  "digital_footprint": {
-    "device_types": [
-      "desktop",
-      "tablet",
-      "mobile"
-    ],
-    "os_versions": [
-      "Opera/8.17.(X11; Linux x86_64; mk-MK) Presto/2.9.162 Version/10.00"
-    ]
-  }
-}</t>
-        </is>
-      </c>
-      <c r="N3" t="n">
-        <v>80</v>
-      </c>
+      <c r="N3" t="inlineStr"/>
       <c r="O3" t="n">
-        <v>62.9125</v>
+        <v>209</v>
+      </c>
+      <c r="P3" t="n">
+        <v>19.01435406698565</v>
       </c>
     </row>
   </sheetData>
@@ -717,7 +766,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -756,54 +805,76 @@
           <t>digital_footprint</t>
         </is>
       </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>social_media</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>network_analysis</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>CLM-0684E88D</t>
+          <t>CLM-EC1AD267</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>35</v>
+        <v>72</v>
       </c>
       <c r="C2" t="n">
-        <v>801</v>
+        <v>154</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E2" t="n">
-        <v>471</v>
+        <v>526</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>{'device_types': ['tablet', 'desktop'], 'os_versions': ['Opera/8.65.(X11; Linux x86_64; os-RU) Presto/2.9.182 Version/10.00', 'Mozilla/5.0 (compatible; MSIE 9.0; Windows NT 5.0; Trident/4.1)']}</t>
+          <t>{'device_types': ['tablet'], 'os_versions': ['Mozilla/5.0 (iPhone; CPU iPhone OS 7_1_2 like Mac OS X) AppleWebKit/535.2 (KHTML, like Gecko) CriOS/39.0.885.0 Mobile/36Q727 Safari/535.2']}</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>{'platforms': ['facebook', 'linkedin'], 'flags': ['location_mismatch', 'activity_during_disability'], 'last_active': '2025-05-02', 'post_frequency': 20, 'sentiment_analysis': {'positive': 0.21818979727332852, 'negative': 0.5708908549872629}}</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>{'connections': 10, 'fraud_connections': 2, 'flags': ['suspicious_friends', 'new_connections'], 'ip_addresses': ['153.238.196.221', '76.27.193.212'], 'behavioral_biometrics': {'typing_speed': 76.19828011207292, 'mouse_movement': 0.4875940981531951}}</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>CLM-8DBECB22</t>
+          <t>CLM-19876C2F</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>76</v>
+        <v>50</v>
       </c>
       <c r="C3" t="n">
-        <v>1807</v>
+        <v>271</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E3" t="n">
-        <v>487</v>
+        <v>578</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>{'device_types': ['desktop', 'tablet', 'mobile'], 'os_versions': ['Opera/8.17.(X11; Linux x86_64; mk-MK) Presto/2.9.162 Version/10.00']}</t>
-        </is>
-      </c>
+          <t>{'device_types': ['tablet', 'desktop', 'mobile'], 'os_versions': ['Mozilla/5.0 (Macintosh; U; PPC Mac OS X 10_12_2 rv:6.0; fa-IR) AppleWebKit/532.25.2 (KHTML, like Gecko) Version/5.0.3 Safari/532.25.2', 'Mozilla/5.0 (Macintosh; PPC Mac OS X 10_12_1; rv:1.9.6.20) Gecko/6559-05-25 09:44:07.983643 Firefox/9.0']}</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
